--- a/biology/Zoologie/Eunica/Eunica.xlsx
+++ b/biology/Zoologie/Eunica/Eunica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Eunica regroupe des insectes lépidoptères de la famille des Nymphalidae, sous-famille des Biblidinae, tribu des Biblidini (ou des Epicaliini) et sous-tribu des Epicalina.
 </t>
@@ -511,17 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Eunica a été décrit par l'entomologiste allemand Jakob Hübner en 1819[1].
-L'espèce type est Papilio monima (Stoll, 1782) actuellement Eunica monima.
-Synonymie
-Evonyme (Hübner, 1819)
-Eunice (Geyer, 1832)
-Callianira (Doubleday, 1847)[2]
-Faunia (Poey, 1847) [3]
-Amycla (Doubleday, 1849) [4]
-Libythina (Felder, 1861) [5]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Eunica a été décrit par l'entomologiste allemand Jakob Hübner en 1819.
+L'espèce type est Papilio monima (Stoll, 1782) actuellement Eunica monima.</t>
         </is>
       </c>
     </row>
@@ -546,10 +553,53 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Evonyme (Hübner, 1819)
+Eunice (Geyer, 1832)
+Callianira (Doubleday, 1847)
+Faunia (Poey, 1847) 
+Amycla (Doubleday, 1849) 
+Libythina (Felder, 1861) </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eunica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste des espèces
 Eunica alcmena (Doubleday, 1847). 
@@ -595,31 +645,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Eunica</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Eunica</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils résident tous en Amérique du Sud et pour certains aussi dans le sud de l'Amérique du Nord funet.
 </t>
